--- a/data/trans_orig/P58-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2AD2D8-E280-45BB-8535-DEED089E18D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB409B12-7292-41F7-B3CF-91682432C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F5A07B7-8F6D-4535-8786-B4D7624FA9AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBCCCEB8-7B0A-4742-AED8-95A4F31992E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="677">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1899 +77,1911 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
     <t>4,86%</t>
   </si>
   <si>
@@ -2019,9 +2031,6 @@
   </si>
   <si>
     <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
   </si>
   <si>
     <t>4,64%</t>
@@ -2472,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2853B65A-64A2-4E09-BAD7-850CF434C286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE923445-E305-48D8-89CE-38496EC0C443}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3026,10 +3035,10 @@
         <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -3038,13 +3047,13 @@
         <v>113272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3068,13 @@
         <v>60699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3074,13 +3083,13 @@
         <v>51133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -3089,13 +3098,13 @@
         <v>111833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3119,13 @@
         <v>530908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -3125,13 +3134,13 @@
         <v>572399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1119</v>
@@ -3140,13 +3149,13 @@
         <v>1103308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3211,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3214,13 +3223,13 @@
         <v>41908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3229,13 +3238,13 @@
         <v>25923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3244,13 +3253,13 @@
         <v>67831</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3274,13 @@
         <v>36782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3280,13 +3289,13 @@
         <v>45636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3295,13 +3304,13 @@
         <v>82418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3325,13 @@
         <v>440457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>447</v>
@@ -3331,13 +3340,13 @@
         <v>444083</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>883</v>
@@ -3346,13 +3355,13 @@
         <v>884540</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3417,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3420,13 +3429,13 @@
         <v>14289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3435,13 +3444,13 @@
         <v>15624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3450,13 +3459,13 @@
         <v>29913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3480,13 @@
         <v>28769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3486,13 +3495,13 @@
         <v>34999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3501,13 +3510,13 @@
         <v>63768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3531,13 @@
         <v>343652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>357</v>
@@ -3537,13 +3546,13 @@
         <v>353363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>721</v>
@@ -3552,13 +3561,13 @@
         <v>697015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3623,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3635,13 @@
         <v>15595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3641,13 +3650,13 @@
         <v>6563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3656,13 +3665,13 @@
         <v>22158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,10 +3686,10 @@
         <v>39057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>158</v>
@@ -3707,10 +3716,10 @@
         <v>79818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>163</v>
@@ -3835,10 +3844,10 @@
         <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>141</v>
@@ -3847,13 +3856,13 @@
         <v>224604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>268</v>
@@ -3862,13 +3871,13 @@
         <v>429019</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3892,13 @@
         <v>272955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>210</v>
@@ -3898,13 +3907,13 @@
         <v>249635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>372</v>
@@ -3913,13 +3922,13 @@
         <v>522590</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3943,13 @@
         <v>2799173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>2938</v>
@@ -3949,13 +3958,13 @@
         <v>2904958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>5855</v>
@@ -3964,13 +3973,13 @@
         <v>5704131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4035,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D5876-0ED4-4F67-BE9D-E0B39C90B310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2E581D-7494-4075-9B8E-CF8A24C73330}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4181,13 @@
         <v>31796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4187,13 +4196,13 @@
         <v>30112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4202,13 +4211,13 @@
         <v>61908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4232,13 @@
         <v>28924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4238,13 +4247,13 @@
         <v>22953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4253,13 +4262,13 @@
         <v>51877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4283,13 @@
         <v>393426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>382</v>
@@ -4289,13 +4298,13 @@
         <v>377165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>789</v>
@@ -4304,13 +4313,13 @@
         <v>770591</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4387,13 @@
         <v>61090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4393,13 +4402,13 @@
         <v>72602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4408,13 +4417,13 @@
         <v>133692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4438,13 @@
         <v>74167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4444,13 +4453,13 @@
         <v>72217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -4459,13 +4468,13 @@
         <v>146384</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4489,13 @@
         <v>551830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>469</v>
@@ -4495,13 +4504,13 @@
         <v>465436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
@@ -4510,13 +4519,13 @@
         <v>1017266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4593,13 @@
         <v>57461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -4599,13 +4608,13 @@
         <v>69489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -4614,13 +4623,13 @@
         <v>126950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,10 +4644,10 @@
         <v>86617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>257</v>
@@ -4668,10 +4677,10 @@
         <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4695,13 @@
         <v>537785</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4701,13 +4710,13 @@
         <v>555418</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>1123</v>
@@ -4716,13 +4725,13 @@
         <v>1093202</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4787,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4790,13 +4799,13 @@
         <v>38270</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4805,13 +4814,13 @@
         <v>30585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4820,13 +4829,13 @@
         <v>68854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4850,13 @@
         <v>65240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4856,13 +4865,13 @@
         <v>79643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -4871,13 +4880,13 @@
         <v>144883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4901,13 @@
         <v>511107</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>474</v>
@@ -4907,13 +4916,13 @@
         <v>505971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>964</v>
@@ -4922,13 +4931,13 @@
         <v>1017079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,7 +4993,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4996,13 +5005,13 @@
         <v>12386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5011,13 +5020,13 @@
         <v>12439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5026,13 +5035,13 @@
         <v>24825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5056,13 @@
         <v>33071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5062,13 +5071,13 @@
         <v>47829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5077,13 +5086,13 @@
         <v>80900</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5107,13 @@
         <v>383972</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>371</v>
@@ -5113,13 +5122,13 @@
         <v>387531</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>740</v>
@@ -5128,13 +5137,13 @@
         <v>771504</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,7 +5199,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5202,13 +5211,13 @@
         <v>8225</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5217,13 +5226,13 @@
         <v>16147</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5232,13 +5241,13 @@
         <v>24373</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5262,13 @@
         <v>71203</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5268,13 +5277,13 @@
         <v>43746</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -5283,13 +5292,13 @@
         <v>114950</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5313,13 @@
         <v>480208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -5319,13 +5328,13 @@
         <v>683081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>1122</v>
@@ -5334,13 +5343,13 @@
         <v>1163290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5417,13 @@
         <v>209227</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
         <v>194</v>
@@ -5423,13 +5432,13 @@
         <v>231374</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>122</v>
+        <v>349</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -5438,13 +5447,13 @@
         <v>440601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5468,13 @@
         <v>359222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5474,13 +5483,13 @@
         <v>352332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>363</v>
@@ -5489,13 +5498,13 @@
         <v>711554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5519,13 @@
         <v>2858330</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H30" s="7">
         <v>2914</v>
@@ -5525,13 +5534,13 @@
         <v>2974603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>5788</v>
@@ -5540,13 +5549,13 @@
         <v>5832933</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,7 +5611,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5624,7 +5633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9926E93-4CA5-4408-86B0-BDB96B5D3F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65772E12-DEDD-4233-B2D1-EAF69DAF3CB2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5641,7 +5650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5748,13 +5757,13 @@
         <v>41664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>371</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5763,13 +5772,13 @@
         <v>24404</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5778,13 +5787,13 @@
         <v>66068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5808,13 @@
         <v>26098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5814,13 +5823,13 @@
         <v>21853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5829,13 +5838,13 @@
         <v>47950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>388</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5859,13 @@
         <v>351701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>367</v>
@@ -5865,13 +5874,13 @@
         <v>349499</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>714</v>
@@ -5880,13 +5889,13 @@
         <v>701200</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5963,13 @@
         <v>57122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5969,13 +5978,13 @@
         <v>52880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5984,13 +5993,13 @@
         <v>110002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6014,13 @@
         <v>46340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -6020,13 +6029,13 @@
         <v>41216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6035,13 +6044,13 @@
         <v>87556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6065,13 @@
         <v>487034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>501</v>
@@ -6071,13 +6080,13 @@
         <v>469448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -6086,13 +6095,13 @@
         <v>956483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6169,13 @@
         <v>53622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -6175,13 +6184,13 @@
         <v>70973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -6190,13 +6199,13 @@
         <v>124594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6220,13 @@
         <v>78646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -6226,13 +6235,13 @@
         <v>84515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -6241,13 +6250,13 @@
         <v>163161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6271,13 @@
         <v>536829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -6277,13 +6286,13 @@
         <v>505898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -6292,13 +6301,13 @@
         <v>1042727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6366,13 +6375,13 @@
         <v>41378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6381,13 +6390,13 @@
         <v>48553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6396,13 +6405,13 @@
         <v>89930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6426,13 @@
         <v>74117</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -6432,13 +6441,13 @@
         <v>57707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6447,13 +6456,13 @@
         <v>131824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6477,13 @@
         <v>530553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -6483,13 +6492,13 @@
         <v>542818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>1035</v>
@@ -6498,13 +6507,13 @@
         <v>1073370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6569,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6581,13 @@
         <v>10088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6587,13 +6596,13 @@
         <v>23546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6602,13 +6611,13 @@
         <v>33634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6632,13 @@
         <v>36415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6638,13 +6647,13 @@
         <v>39875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>471</v>
+        <v>27</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -6653,13 +6662,13 @@
         <v>76290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>469</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6683,13 @@
         <v>431415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>392</v>
@@ -6689,13 +6698,13 @@
         <v>433428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>789</v>
@@ -6704,13 +6713,13 @@
         <v>864843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,7 +6775,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6778,13 +6787,13 @@
         <v>4762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -6793,13 +6802,13 @@
         <v>11134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6808,13 +6817,13 @@
         <v>15895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6838,13 @@
         <v>54129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -6844,13 +6853,13 @@
         <v>80940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -6862,10 +6871,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6889,13 @@
         <v>532437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -6895,13 +6904,13 @@
         <v>685858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6910,13 +6919,13 @@
         <v>1218295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6993,13 @@
         <v>208635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H28" s="7">
         <v>212</v>
@@ -6999,13 +7008,13 @@
         <v>231488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M28" s="7">
         <v>370</v>
@@ -7014,13 +7023,13 @@
         <v>440123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>350</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7044,13 @@
         <v>315746</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H29" s="7">
         <v>194</v>
@@ -7050,13 +7059,13 @@
         <v>326105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -7065,13 +7074,13 @@
         <v>641851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>519</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7095,13 @@
         <v>2869969</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H30" s="7">
         <v>2932</v>
@@ -7101,13 +7110,13 @@
         <v>2986949</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>5817</v>
@@ -7116,13 +7125,13 @@
         <v>5856918</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,7 +7187,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7200,7 +7209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEF1F9E-BCEA-4BBD-B93F-CF0693F3CEC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F95DA-FCB1-42F2-B8DB-5B3FE954332A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7217,7 +7226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7324,13 +7333,13 @@
         <v>3045</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -7339,13 +7348,13 @@
         <v>2883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7354,13 +7363,13 @@
         <v>5928</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7384,13 @@
         <v>12712</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7530,7 +7539,7 @@
         <v>5119</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>551</v>
@@ -7584,7 +7593,7 @@
         <v>559</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>560</v>
@@ -7602,7 +7611,7 @@
         <v>536</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>562</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -7611,13 +7620,13 @@
         <v>45220</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,7 +7641,7 @@
         <v>401431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>565</v>
@@ -7647,13 +7656,13 @@
         <v>449130</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M10" s="7">
         <v>633</v>
@@ -7662,13 +7671,13 @@
         <v>850561</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7745,13 @@
         <v>11178</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7751,10 +7760,10 @@
         <v>16411</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>577</v>
@@ -7772,7 +7781,7 @@
         <v>579</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,7 +7811,7 @@
         <v>33204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>583</v>
@@ -7823,7 +7832,7 @@
         <v>586</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,10 +7880,10 @@
         <v>593</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7939,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7942,10 +7951,10 @@
         <v>7970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>596</v>
@@ -7957,13 +7966,13 @@
         <v>14000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -7975,10 +7984,10 @@
         <v>596</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,10 +8005,10 @@
         <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -8008,13 +8017,13 @@
         <v>36792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>601</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>602</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -8023,13 +8032,13 @@
         <v>81256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8053,13 @@
         <v>615283</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H18" s="7">
         <v>990</v>
@@ -8059,13 +8068,13 @@
         <v>674288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
@@ -8074,13 +8083,13 @@
         <v>1289571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,7 +8145,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8148,13 +8157,13 @@
         <v>7171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8163,13 +8172,13 @@
         <v>9230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>616</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>617</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -8178,10 +8187,10 @@
         <v>16402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>556</v>
@@ -8199,13 +8208,13 @@
         <v>34393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>586</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -8214,13 +8223,13 @@
         <v>27257</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>622</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -8229,13 +8238,13 @@
         <v>61649</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>202</v>
+        <v>625</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8259,13 @@
         <v>558593</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
@@ -8265,13 +8274,13 @@
         <v>557359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>1481</v>
@@ -8280,13 +8289,13 @@
         <v>1115951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,7 +8351,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8354,13 +8363,13 @@
         <v>4942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>636</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>633</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -8369,13 +8378,13 @@
         <v>6529</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -8384,13 +8393,13 @@
         <v>11471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>636</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>463</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8414,13 @@
         <v>41139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>639</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>640</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -8420,13 +8429,13 @@
         <v>50769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>643</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -8435,13 +8444,13 @@
         <v>91908</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>646</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8465,13 @@
         <v>651672</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H26" s="7">
         <v>1571</v>
@@ -8471,13 +8480,13 @@
         <v>854232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="M26" s="7">
         <v>2512</v>
@@ -8486,13 +8495,13 @@
         <v>1505906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8569,13 @@
         <v>39425</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>370</v>
@@ -8575,13 +8584,13 @@
         <v>58939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="M28" s="7">
         <v>617</v>
@@ -8590,13 +8599,13 @@
         <v>98364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8620,13 @@
         <v>180904</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>660</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="H29" s="7">
         <v>261</v>
@@ -8626,13 +8635,13 @@
         <v>181674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>432</v>
@@ -8641,13 +8650,13 @@
         <v>362578</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8671,13 @@
         <v>3108625</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>546</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H30" s="7">
         <v>4717</v>
@@ -8677,13 +8686,13 @@
         <v>3410665</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="M30" s="7">
         <v>7673</v>
@@ -8692,13 +8701,13 @@
         <v>6519290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,7 +8763,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB409B12-7292-41F7-B3CF-91682432C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A3FD90-2453-45E5-91DF-468BDB472E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBCCCEB8-7B0A-4742-AED8-95A4F31992E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8CEB70E-73B3-41DC-A8FD-F302E0981760}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="684">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1999 +77,2020 @@
     <t>7,63%</t>
   </si>
   <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>9,2%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>94,18%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE923445-E305-48D8-89CE-38496EC0C443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F8F0-3735-4491-A997-227CDAB0BF19}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3274,13 +3295,13 @@
         <v>36782</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3289,13 +3310,13 @@
         <v>45636</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3304,13 +3325,13 @@
         <v>82418</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3379,10 @@
         <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3438,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3429,13 +3450,13 @@
         <v>14289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3444,13 +3465,13 @@
         <v>15624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3459,13 +3480,13 @@
         <v>29913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3501,13 @@
         <v>28769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3495,13 +3516,13 @@
         <v>34999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3510,13 +3531,13 @@
         <v>63768</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3552,13 @@
         <v>343652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>357</v>
@@ -3546,13 +3567,13 @@
         <v>353363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>721</v>
@@ -3561,13 +3582,13 @@
         <v>697015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3644,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3635,13 +3656,13 @@
         <v>15595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3650,13 +3671,13 @@
         <v>6563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3665,13 +3686,13 @@
         <v>22158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3707,13 @@
         <v>39057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3701,13 +3722,13 @@
         <v>40761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -3716,13 +3737,13 @@
         <v>79818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3758,13 @@
         <v>447814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3752,13 +3773,13 @@
         <v>629518</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>1110</v>
@@ -3767,13 +3788,13 @@
         <v>1077332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3862,13 @@
         <v>204415</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>141</v>
@@ -3856,13 +3877,13 @@
         <v>224604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>268</v>
@@ -3871,13 +3892,13 @@
         <v>429019</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3913,13 @@
         <v>272955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>210</v>
@@ -3907,13 +3928,13 @@
         <v>249635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>372</v>
@@ -3922,13 +3943,13 @@
         <v>522590</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3964,13 @@
         <v>2799173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>2938</v>
@@ -3958,13 +3979,13 @@
         <v>2904958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>5855</v>
@@ -3973,13 +3994,13 @@
         <v>5704131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4056,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2E581D-7494-4075-9B8E-CF8A24C73330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA51AE-3674-460D-BBD8-52AE711FB2D4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4074,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4181,13 +4202,13 @@
         <v>31796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4196,13 +4217,13 @@
         <v>30112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4211,13 +4232,13 @@
         <v>61908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4253,13 @@
         <v>28924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4247,13 +4268,13 @@
         <v>22953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4262,13 +4283,13 @@
         <v>51877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4304,13 @@
         <v>393426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H6" s="7">
         <v>382</v>
@@ -4298,13 +4319,13 @@
         <v>377165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>789</v>
@@ -4313,13 +4334,13 @@
         <v>770591</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4408,13 @@
         <v>61090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4402,13 +4423,13 @@
         <v>72602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4417,13 +4438,13 @@
         <v>133692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4459,13 @@
         <v>74167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4453,13 +4474,13 @@
         <v>72217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -4468,13 +4489,13 @@
         <v>146384</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4510,13 @@
         <v>551830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>469</v>
@@ -4504,13 +4525,13 @@
         <v>465436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
@@ -4519,13 +4540,13 @@
         <v>1017266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4614,13 @@
         <v>57461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -4608,13 +4629,13 @@
         <v>69489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -4623,13 +4644,13 @@
         <v>126950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4665,13 @@
         <v>86617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4659,13 +4680,13 @@
         <v>85943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -4674,13 +4695,13 @@
         <v>172560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4716,13 @@
         <v>537785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4710,13 +4731,13 @@
         <v>555418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>1123</v>
@@ -4725,13 +4746,13 @@
         <v>1093202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4820,13 @@
         <v>38270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4814,13 +4835,13 @@
         <v>30585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4829,13 +4850,13 @@
         <v>68854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4871,13 @@
         <v>65240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4865,13 +4886,13 @@
         <v>79643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -4880,13 +4901,13 @@
         <v>144883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4922,13 @@
         <v>511107</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>474</v>
@@ -4916,13 +4937,13 @@
         <v>505971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>964</v>
@@ -4931,13 +4952,13 @@
         <v>1017079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +5014,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5005,13 +5026,13 @@
         <v>12386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5020,13 +5041,13 @@
         <v>12439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5035,13 +5056,13 @@
         <v>24825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5077,13 @@
         <v>33071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5071,13 +5092,13 @@
         <v>47829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5086,13 +5107,13 @@
         <v>80900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5128,13 @@
         <v>383972</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>371</v>
@@ -5122,13 +5143,13 @@
         <v>387531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>740</v>
@@ -5137,13 +5158,13 @@
         <v>771504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,7 +5220,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5211,13 +5232,13 @@
         <v>8225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5226,13 +5247,13 @@
         <v>16147</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5241,13 +5262,13 @@
         <v>24373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5283,13 @@
         <v>71203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5277,13 +5298,13 @@
         <v>43746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -5292,13 +5313,13 @@
         <v>114950</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5334,13 @@
         <v>480208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -5328,13 +5349,13 @@
         <v>683081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>1122</v>
@@ -5343,13 +5364,13 @@
         <v>1163290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5438,13 @@
         <v>209227</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>194</v>
@@ -5432,13 +5453,13 @@
         <v>231374</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -5447,13 +5468,13 @@
         <v>440601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5489,13 @@
         <v>359222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5483,13 +5504,13 @@
         <v>352332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>363</v>
@@ -5498,13 +5519,13 @@
         <v>711554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5540,13 @@
         <v>2858330</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H30" s="7">
         <v>2914</v>
@@ -5534,13 +5555,13 @@
         <v>2974603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>5788</v>
@@ -5549,13 +5570,13 @@
         <v>5832933</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5632,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5633,7 +5654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65772E12-DEDD-4233-B2D1-EAF69DAF3CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7E6AB-A354-40BF-BCA5-B31754BEE451}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5650,7 +5671,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5757,13 +5778,13 @@
         <v>41664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5772,13 +5793,13 @@
         <v>24404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5787,13 +5808,13 @@
         <v>66068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5829,13 @@
         <v>26098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5823,13 +5844,13 @@
         <v>21853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5838,13 +5859,13 @@
         <v>47950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5880,13 @@
         <v>351701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>367</v>
@@ -5874,13 +5895,13 @@
         <v>349499</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>393</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>714</v>
@@ -5889,13 +5910,13 @@
         <v>701200</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5984,13 @@
         <v>57122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5978,13 +5999,13 @@
         <v>52880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5993,13 +6014,13 @@
         <v>110002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6035,13 @@
         <v>46340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -6029,13 +6050,13 @@
         <v>41216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>280</v>
+        <v>409</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6044,13 +6065,13 @@
         <v>87556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6086,13 @@
         <v>487034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H10" s="7">
         <v>501</v>
@@ -6080,13 +6101,13 @@
         <v>469448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -6095,13 +6116,13 @@
         <v>956483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6190,13 @@
         <v>53622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>135</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -6184,13 +6205,13 @@
         <v>70973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -6199,13 +6220,13 @@
         <v>124594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6241,13 @@
         <v>78646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -6235,13 +6256,13 @@
         <v>84515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -6250,13 +6271,13 @@
         <v>163161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6292,13 @@
         <v>536829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -6286,13 +6307,13 @@
         <v>505898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -6301,13 +6322,13 @@
         <v>1042727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6396,13 @@
         <v>41378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6390,13 +6411,13 @@
         <v>48553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6405,13 +6426,13 @@
         <v>89930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6447,13 @@
         <v>74117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -6441,13 +6462,13 @@
         <v>57707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6456,13 +6477,13 @@
         <v>131824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6498,13 @@
         <v>530553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -6492,13 +6513,13 @@
         <v>542818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>1035</v>
@@ -6507,13 +6528,13 @@
         <v>1073370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6590,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6581,13 +6602,13 @@
         <v>10088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6596,13 +6617,13 @@
         <v>23546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6611,13 +6632,13 @@
         <v>33634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6653,13 @@
         <v>36415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6647,13 +6668,13 @@
         <v>39875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>27</v>
+        <v>410</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -6662,13 +6683,13 @@
         <v>76290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6704,13 @@
         <v>431415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>392</v>
@@ -6698,13 +6719,13 @@
         <v>433428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>789</v>
@@ -6713,13 +6734,13 @@
         <v>864843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,7 +6796,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6787,13 +6808,13 @@
         <v>4762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -6802,13 +6823,13 @@
         <v>11134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6817,13 +6838,13 @@
         <v>15895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6859,13 @@
         <v>54129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>499</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -6853,13 +6874,13 @@
         <v>80940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -6871,10 +6892,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6910,13 @@
         <v>532437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -6904,13 +6925,13 @@
         <v>685858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6919,13 +6940,13 @@
         <v>1218295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7014,13 @@
         <v>208635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>506</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>212</v>
@@ -7011,10 +7032,10 @@
         <v>55</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>517</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>508</v>
+        <v>259</v>
       </c>
       <c r="M28" s="7">
         <v>370</v>
@@ -7023,13 +7044,13 @@
         <v>440123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7065,13 @@
         <v>315746</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>511</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H29" s="7">
         <v>194</v>
@@ -7059,13 +7080,13 @@
         <v>326105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -7074,13 +7095,13 @@
         <v>641851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7116,13 @@
         <v>2869969</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>2932</v>
@@ -7110,13 +7131,13 @@
         <v>2986949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M30" s="7">
         <v>5817</v>
@@ -7125,13 +7146,13 @@
         <v>5856918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,7 +7208,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7209,7 +7230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F95DA-FCB1-42F2-B8DB-5B3FE954332A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408D394-DB4C-4DA1-94EE-679A2DBDDC09}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7226,7 +7247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7333,13 +7354,13 @@
         <v>3045</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -7348,13 +7369,13 @@
         <v>2883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7363,13 +7384,13 @@
         <v>5928</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7405,13 @@
         <v>12712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7399,13 +7420,13 @@
         <v>10279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -7414,13 +7435,13 @@
         <v>22992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>540</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7456,13 @@
         <v>361921</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H6" s="7">
         <v>184</v>
@@ -7450,13 +7471,13 @@
         <v>341795</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -7465,13 +7486,13 @@
         <v>703716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7560,13 @@
         <v>5119</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -7554,13 +7575,13 @@
         <v>9885</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -7569,13 +7590,13 @@
         <v>15004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7611,13 @@
         <v>21846</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -7605,13 +7626,13 @@
         <v>23373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -7620,13 +7641,13 @@
         <v>45220</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>564</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7662,13 @@
         <v>401431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H10" s="7">
         <v>376</v>
@@ -7656,13 +7677,13 @@
         <v>449130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>633</v>
@@ -7671,13 +7692,13 @@
         <v>850561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7766,13 @@
         <v>11178</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7760,13 +7781,13 @@
         <v>16411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
@@ -7775,13 +7796,13 @@
         <v>27589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7817,13 @@
         <v>26349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>581</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>582</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7811,13 +7832,13 @@
         <v>33204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>588</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -7826,13 +7847,13 @@
         <v>59553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7868,13 @@
         <v>519725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="H14" s="7">
         <v>699</v>
@@ -7862,13 +7883,13 @@
         <v>533861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
@@ -7877,13 +7898,13 @@
         <v>1053585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>594</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7972,13 @@
         <v>7970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>602</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -7966,13 +7987,13 @@
         <v>14000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>597</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -7981,13 +8002,13 @@
         <v>21970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8023,13 @@
         <v>44464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>609</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>610</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -8017,13 +8038,13 @@
         <v>36792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -8032,13 +8053,13 @@
         <v>81256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8074,13 @@
         <v>615283</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="H18" s="7">
         <v>990</v>
@@ -8068,13 +8089,13 @@
         <v>674288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
@@ -8083,13 +8104,13 @@
         <v>1289571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,7 +8166,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8157,13 +8178,13 @@
         <v>7171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8172,13 +8193,13 @@
         <v>9230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -8187,13 +8208,13 @@
         <v>16402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>619</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8229,13 @@
         <v>34393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -8223,13 +8244,13 @@
         <v>27257</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>633</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -8238,13 +8259,13 @@
         <v>61649</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8280,13 @@
         <v>558593</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
@@ -8274,13 +8295,13 @@
         <v>557359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="M22" s="7">
         <v>1481</v>
@@ -8289,13 +8310,13 @@
         <v>1115951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8372,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8363,13 +8384,13 @@
         <v>4942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -8378,13 +8399,13 @@
         <v>6529</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -8393,13 +8414,13 @@
         <v>11471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>531</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8435,13 @@
         <v>41139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -8429,13 +8450,13 @@
         <v>50769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -8444,13 +8465,13 @@
         <v>91908</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,16 +8483,16 @@
         <v>941</v>
       </c>
       <c r="D26" s="7">
-        <v>651672</v>
+        <v>651673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="H26" s="7">
         <v>1571</v>
@@ -8480,13 +8501,13 @@
         <v>854232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>2512</v>
@@ -8495,13 +8516,13 @@
         <v>1505906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,7 +8534,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8569,13 +8590,13 @@
         <v>39425</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H28" s="7">
         <v>370</v>
@@ -8584,13 +8605,13 @@
         <v>58939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="M28" s="7">
         <v>617</v>
@@ -8599,13 +8620,13 @@
         <v>98364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,13 +8641,13 @@
         <v>180904</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>664</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>665</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>261</v>
@@ -8635,13 +8656,13 @@
         <v>181674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>666</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="M29" s="7">
         <v>432</v>
@@ -8650,13 +8671,13 @@
         <v>362578</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>669</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8692,13 @@
         <v>3108625</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>677</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="H30" s="7">
         <v>4717</v>
@@ -8686,13 +8707,13 @@
         <v>3410665</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="M30" s="7">
         <v>7673</v>
@@ -8701,13 +8722,13 @@
         <v>6519290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8763,7 +8784,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A3FD90-2453-45E5-91DF-468BDB472E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADD9CE5-1612-43EF-8EED-4F9977DFA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8CEB70E-73B3-41DC-A8FD-F302E0981760}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E2B0B43-579C-49C1-B9E1-067009A08333}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="674">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -98,7 +98,7 @@
     <t>6,29%</t>
   </si>
   <si>
-    <t>10,64%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>Resto de España</t>
@@ -107,1990 +107,1960 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
     <t>5,19%</t>
   </si>
   <si>
+    <t>5,79%</t>
+  </si>
+  <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>94,18%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F8F0-3735-4491-A997-227CDAB0BF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD252F5-B25D-4E71-8FE7-3C1E068DDC3F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3056,10 +3026,10 @@
         <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -3068,13 +3038,13 @@
         <v>113272</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3059,13 @@
         <v>60699</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3104,13 +3074,13 @@
         <v>51133</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -3119,13 +3089,13 @@
         <v>111833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3110,13 @@
         <v>530908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -3155,13 +3125,13 @@
         <v>572399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1119</v>
@@ -3170,13 +3140,13 @@
         <v>1103308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3244,13 +3214,13 @@
         <v>41908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3259,13 +3229,13 @@
         <v>25923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3274,13 +3244,13 @@
         <v>67831</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3265,13 @@
         <v>36782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3310,13 +3280,13 @@
         <v>45636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3325,13 +3295,13 @@
         <v>82418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3316,13 @@
         <v>440457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>447</v>
@@ -3361,13 +3331,13 @@
         <v>444083</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>883</v>
@@ -3376,13 +3346,13 @@
         <v>884540</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3408,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3420,13 @@
         <v>14289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3465,13 +3435,13 @@
         <v>15624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3480,13 +3450,13 @@
         <v>29913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3471,13 @@
         <v>28769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3516,13 +3486,13 @@
         <v>34999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3531,13 +3501,13 @@
         <v>63768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3522,13 @@
         <v>343652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>357</v>
@@ -3567,13 +3537,13 @@
         <v>353363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>721</v>
@@ -3582,13 +3552,13 @@
         <v>697015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3656,13 +3626,13 @@
         <v>15595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3671,13 +3641,13 @@
         <v>6563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3686,13 +3656,13 @@
         <v>22158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3677,13 @@
         <v>39057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3722,13 +3692,13 @@
         <v>40761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -3737,13 +3707,13 @@
         <v>79818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3728,13 @@
         <v>447814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3773,13 +3743,13 @@
         <v>629518</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1110</v>
@@ -3788,13 +3758,13 @@
         <v>1077332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3832,13 @@
         <v>204415</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>141</v>
@@ -3877,13 +3847,13 @@
         <v>224604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>268</v>
@@ -3892,13 +3862,13 @@
         <v>429019</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3883,13 @@
         <v>272955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>210</v>
@@ -3928,13 +3898,13 @@
         <v>249635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>372</v>
@@ -3943,13 +3913,13 @@
         <v>522590</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3934,13 @@
         <v>2799173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>2938</v>
@@ -3979,13 +3949,13 @@
         <v>2904958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>5855</v>
@@ -3994,13 +3964,13 @@
         <v>5704131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4026,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA51AE-3674-460D-BBD8-52AE711FB2D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1437901B-C3F1-42C9-BC83-E899DFDF1846}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,7 +4065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4202,13 +4172,13 @@
         <v>31796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4217,13 +4187,13 @@
         <v>30112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4232,13 +4202,13 @@
         <v>61908</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4223,13 @@
         <v>28924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4268,13 +4238,13 @@
         <v>22953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4283,13 +4253,13 @@
         <v>51877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4274,13 @@
         <v>393426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>382</v>
@@ -4319,13 +4289,13 @@
         <v>377165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>789</v>
@@ -4334,13 +4304,13 @@
         <v>770591</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4378,13 @@
         <v>61090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4423,13 +4393,13 @@
         <v>72602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4438,13 +4408,13 @@
         <v>133692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4429,13 @@
         <v>74167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4474,13 +4444,13 @@
         <v>72217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -4489,13 +4459,13 @@
         <v>146384</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4480,13 @@
         <v>551830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>469</v>
@@ -4525,13 +4495,13 @@
         <v>465436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
@@ -4540,13 +4510,13 @@
         <v>1017266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4584,13 @@
         <v>57461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -4629,13 +4599,13 @@
         <v>69489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -4644,13 +4614,13 @@
         <v>126950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4635,13 @@
         <v>86617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4680,13 +4650,13 @@
         <v>85943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -4695,13 +4665,13 @@
         <v>172560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4686,13 @@
         <v>537785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4731,13 +4701,13 @@
         <v>555418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>1123</v>
@@ -4746,13 +4716,13 @@
         <v>1093202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4778,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4820,13 +4790,13 @@
         <v>38270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4835,13 +4805,13 @@
         <v>30585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4850,13 +4820,13 @@
         <v>68854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4841,13 @@
         <v>65240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4886,13 +4856,13 @@
         <v>79643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -4901,13 +4871,13 @@
         <v>144883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4892,13 @@
         <v>511107</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>474</v>
@@ -4937,13 +4907,13 @@
         <v>505971</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>964</v>
@@ -4952,13 +4922,13 @@
         <v>1017079</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +4984,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5026,13 +4996,13 @@
         <v>12386</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5041,13 +5011,13 @@
         <v>12439</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5056,13 +5026,13 @@
         <v>24825</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5047,13 @@
         <v>33071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5092,13 +5062,13 @@
         <v>47829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5107,13 +5077,13 @@
         <v>80900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5098,13 @@
         <v>383972</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>371</v>
@@ -5143,13 +5113,13 @@
         <v>387531</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>740</v>
@@ -5158,13 +5128,13 @@
         <v>771504</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,7 +5190,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5232,13 +5202,13 @@
         <v>8225</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5247,13 +5217,13 @@
         <v>16147</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5262,13 +5232,13 @@
         <v>24373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5253,13 @@
         <v>71203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5298,13 +5268,13 @@
         <v>43746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -5313,13 +5283,13 @@
         <v>114950</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5304,13 @@
         <v>480208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -5349,13 +5319,13 @@
         <v>683081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>1122</v>
@@ -5364,13 +5334,13 @@
         <v>1163290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5408,13 @@
         <v>209227</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>194</v>
@@ -5453,13 +5423,13 @@
         <v>231374</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -5468,13 +5438,13 @@
         <v>440601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5459,13 @@
         <v>359222</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5504,13 +5474,13 @@
         <v>352332</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>363</v>
@@ -5519,13 +5489,13 @@
         <v>711554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5510,13 @@
         <v>2858330</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H30" s="7">
         <v>2914</v>
@@ -5555,13 +5525,13 @@
         <v>2974603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="M30" s="7">
         <v>5788</v>
@@ -5570,13 +5540,13 @@
         <v>5832933</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5602,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +5624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7E6AB-A354-40BF-BCA5-B31754BEE451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD50A8-CA51-47EC-91E3-40F606A8833E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5671,7 +5641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5778,13 +5748,13 @@
         <v>41664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5793,13 +5763,13 @@
         <v>24404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5808,13 +5778,13 @@
         <v>66068</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5799,13 @@
         <v>26098</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5844,13 +5814,13 @@
         <v>21853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5859,13 +5829,13 @@
         <v>47950</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5850,13 @@
         <v>351701</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>367</v>
@@ -5895,13 +5865,13 @@
         <v>349499</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>714</v>
@@ -5910,13 +5880,13 @@
         <v>701200</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5954,13 @@
         <v>57122</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5999,13 +5969,13 @@
         <v>52880</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -6014,13 +5984,13 @@
         <v>110002</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6005,13 @@
         <v>46340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -6050,13 +6020,13 @@
         <v>41216</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6065,13 +6035,13 @@
         <v>87556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>414</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6056,13 @@
         <v>487034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>501</v>
@@ -6101,13 +6071,13 @@
         <v>469448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -6116,13 +6086,13 @@
         <v>956483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6160,13 @@
         <v>53622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -6205,13 +6175,13 @@
         <v>70973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -6220,13 +6190,13 @@
         <v>124594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6211,13 @@
         <v>78646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -6256,13 +6226,13 @@
         <v>84515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -6271,13 +6241,13 @@
         <v>163161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6262,13 @@
         <v>536829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -6307,13 +6277,13 @@
         <v>505898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -6322,13 +6292,13 @@
         <v>1042727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6354,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6396,13 +6366,13 @@
         <v>41378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6411,13 +6381,13 @@
         <v>48553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6426,13 +6396,13 @@
         <v>89930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>48</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6417,13 @@
         <v>74117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -6462,13 +6432,13 @@
         <v>57707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6477,13 +6447,13 @@
         <v>131824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6468,13 @@
         <v>530553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -6513,13 +6483,13 @@
         <v>542818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="M18" s="7">
         <v>1035</v>
@@ -6528,13 +6498,13 @@
         <v>1073370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,7 +6560,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6602,13 +6572,13 @@
         <v>10088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>470</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6617,13 +6587,13 @@
         <v>23546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6632,13 +6602,13 @@
         <v>33634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6623,13 @@
         <v>36415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6668,13 +6638,13 @@
         <v>39875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -6683,13 +6653,13 @@
         <v>76290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,13 +6674,13 @@
         <v>431415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>392</v>
@@ -6719,13 +6689,13 @@
         <v>433428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>789</v>
@@ -6734,13 +6704,13 @@
         <v>864843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6766,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6808,13 +6778,13 @@
         <v>4762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -6823,13 +6793,13 @@
         <v>11134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6838,13 +6808,13 @@
         <v>15895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6829,13 @@
         <v>54129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -6874,13 +6844,13 @@
         <v>80940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -6892,10 +6862,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6880,13 @@
         <v>532437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -6925,13 +6895,13 @@
         <v>685858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6940,13 +6910,13 @@
         <v>1218295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +6984,13 @@
         <v>208635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H28" s="7">
         <v>212</v>
@@ -7029,13 +6999,13 @@
         <v>231488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
         <v>370</v>
@@ -7044,13 +7014,13 @@
         <v>440123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7035,13 @@
         <v>315746</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>515</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H29" s="7">
         <v>194</v>
@@ -7080,13 +7050,13 @@
         <v>326105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>523</v>
+        <v>13</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -7095,13 +7065,13 @@
         <v>641851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>524</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>526</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7086,13 @@
         <v>2869969</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>521</v>
       </c>
       <c r="H30" s="7">
         <v>2932</v>
@@ -7131,13 +7101,13 @@
         <v>2986949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>530</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>5817</v>
@@ -7146,13 +7116,13 @@
         <v>5856918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,7 +7178,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -7230,7 +7200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408D394-DB4C-4DA1-94EE-679A2DBDDC09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48AB1E6-AD64-49AD-9BAA-01E6DE95B477}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7247,7 +7217,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7354,13 +7324,13 @@
         <v>3045</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>528</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -7369,13 +7339,13 @@
         <v>2883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7384,13 +7354,13 @@
         <v>5928</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7375,13 @@
         <v>12712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>541</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7420,13 +7390,13 @@
         <v>10279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -7435,13 +7405,13 @@
         <v>22992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7426,13 @@
         <v>361921</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>184</v>
@@ -7471,13 +7441,13 @@
         <v>341795</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -7486,13 +7456,13 @@
         <v>703716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7530,13 @@
         <v>5119</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -7575,13 +7545,13 @@
         <v>9885</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -7590,13 +7560,13 @@
         <v>15004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7581,13 @@
         <v>21846</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>564</v>
+        <v>303</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -7626,13 +7596,13 @@
         <v>23373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>568</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -7641,13 +7611,13 @@
         <v>45220</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7632,13 @@
         <v>401431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H10" s="7">
         <v>376</v>
@@ -7677,13 +7647,13 @@
         <v>449130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M10" s="7">
         <v>633</v>
@@ -7692,13 +7662,13 @@
         <v>850561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7736,13 @@
         <v>11178</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7781,13 +7751,13 @@
         <v>16411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
@@ -7796,13 +7766,13 @@
         <v>27589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7787,13 @@
         <v>26349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>581</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>582</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7832,13 +7802,13 @@
         <v>33204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -7847,13 +7817,13 @@
         <v>59553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7838,13 @@
         <v>519725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H14" s="7">
         <v>699</v>
@@ -7883,13 +7853,13 @@
         <v>533861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
@@ -7898,13 +7868,13 @@
         <v>1053585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7930,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7972,13 +7942,13 @@
         <v>7970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -7987,13 +7957,13 @@
         <v>14000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -8002,13 +7972,13 @@
         <v>21970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>607</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +7993,13 @@
         <v>44464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>610</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -8038,13 +8008,13 @@
         <v>36792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>611</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>612</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -8053,13 +8023,13 @@
         <v>81256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>601</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8044,13 @@
         <v>615283</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H18" s="7">
         <v>990</v>
@@ -8089,13 +8059,13 @@
         <v>674288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
@@ -8104,13 +8074,13 @@
         <v>1289571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,7 +8136,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8178,13 +8148,13 @@
         <v>7171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8193,13 +8163,13 @@
         <v>9230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>580</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>625</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -8208,13 +8178,13 @@
         <v>16402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>616</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8199,13 @@
         <v>34393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>629</v>
+        <v>586</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -8244,13 +8214,13 @@
         <v>27257</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -8259,13 +8229,13 @@
         <v>61649</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>634</v>
+        <v>202</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>458</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8250,13 @@
         <v>558593</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
@@ -8295,13 +8265,13 @@
         <v>557359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M22" s="7">
         <v>1481</v>
@@ -8310,13 +8280,13 @@
         <v>1115951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,7 +8342,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8384,13 +8354,13 @@
         <v>4942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>645</v>
+        <v>326</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>633</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -8399,13 +8369,13 @@
         <v>6529</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -8414,13 +8384,13 @@
         <v>11471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>645</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8405,13 @@
         <v>41139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>640</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -8450,13 +8420,13 @@
         <v>50769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -8465,13 +8435,13 @@
         <v>91908</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>656</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>643</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,16 +8453,16 @@
         <v>941</v>
       </c>
       <c r="D26" s="7">
-        <v>651673</v>
+        <v>651672</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="H26" s="7">
         <v>1571</v>
@@ -8501,13 +8471,13 @@
         <v>854232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="M26" s="7">
         <v>2512</v>
@@ -8516,13 +8486,13 @@
         <v>1505906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,7 +8504,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8590,13 +8560,13 @@
         <v>39425</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>370</v>
@@ -8605,13 +8575,13 @@
         <v>58939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="M28" s="7">
         <v>617</v>
@@ -8620,13 +8590,13 @@
         <v>98364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8641,13 +8611,13 @@
         <v>180904</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>660</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>661</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>662</v>
       </c>
       <c r="H29" s="7">
         <v>261</v>
@@ -8656,13 +8626,13 @@
         <v>181674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>663</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>432</v>
@@ -8671,13 +8641,13 @@
         <v>362578</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>587</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>21</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8662,13 @@
         <v>3108625</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>677</v>
+        <v>546</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="H30" s="7">
         <v>4717</v>
@@ -8707,13 +8677,13 @@
         <v>3410665</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="M30" s="7">
         <v>7673</v>
@@ -8722,13 +8692,13 @@
         <v>6519290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,7 +8754,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADD9CE5-1612-43EF-8EED-4F9977DFA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D1FAFB-2A8A-4832-A550-05F0A23CB2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E2B0B43-579C-49C1-B9E1-067009A08333}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C86BFBB-3578-4285-8196-DD5FFBF56A50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="764">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Extranjero</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>6,51%</t>
@@ -248,7 +248,7 @@
     <t>83,67%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>7,37%</t>
@@ -320,7 +320,7 @@
     <t>85,42%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>8,07%</t>
@@ -398,7 +398,7 @@
     <t>87,99%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,7%</t>
@@ -479,1588 +479,1858 @@
     <t>90,91%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
 </sst>
 </file>
@@ -2472,8 +2742,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD252F5-B25D-4E71-8FE7-3C1E068DDC3F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590CFF18-5636-4125-A374-77AC87FF9FE1}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3620,10 +3890,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>15595</v>
+        <v>9388</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>147</v>
@@ -3635,10 +3905,10 @@
         <v>149</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>6563</v>
+        <v>2916</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>150</v>
@@ -3650,19 +3920,19 @@
         <v>152</v>
       </c>
       <c r="M24" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>22158</v>
+        <v>12304</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,43 +3941,43 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22602</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="7">
         <v>24</v>
       </c>
-      <c r="D25" s="7">
-        <v>39057</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>26807</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="7">
-        <v>34</v>
-      </c>
-      <c r="I25" s="7">
-        <v>40761</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>38</v>
+      </c>
+      <c r="N25" s="7">
+        <v>49409</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M25" s="7">
-        <v>58</v>
-      </c>
-      <c r="N25" s="7">
-        <v>79818</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>162</v>
@@ -3722,10 +3992,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>488</v>
+        <v>283</v>
       </c>
       <c r="D26" s="7">
-        <v>447814</v>
+        <v>260594</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>164</v>
@@ -3737,10 +4007,10 @@
         <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>622</v>
+        <v>345</v>
       </c>
       <c r="I26" s="7">
-        <v>629518</v>
+        <v>313211</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>167</v>
@@ -3752,10 +4022,10 @@
         <v>169</v>
       </c>
       <c r="M26" s="7">
-        <v>1110</v>
+        <v>628</v>
       </c>
       <c r="N26" s="7">
-        <v>1077332</v>
+        <v>573804</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>170</v>
@@ -3773,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3788,10 +4058,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>660</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3803,10 +4073,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1182</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3820,55 +4090,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>204415</v>
+        <v>6207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>224604</v>
+        <v>3647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>429019</v>
+        <v>9854</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,49 +4147,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>272955</v>
+        <v>16455</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>249635</v>
+        <v>13954</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>522590</v>
+        <v>30409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,49 +4198,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2917</v>
+        <v>205</v>
       </c>
       <c r="D30" s="7">
-        <v>2799173</v>
+        <v>187220</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
-        <v>2938</v>
+        <v>277</v>
       </c>
       <c r="I30" s="7">
-        <v>2904958</v>
+        <v>316307</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
-        <v>5855</v>
+        <v>482</v>
       </c>
       <c r="N30" s="7">
-        <v>5704131</v>
+        <v>503528</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,63 +4249,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>289</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>508</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7">
+        <v>204415</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="7">
+        <v>141</v>
+      </c>
+      <c r="I32" s="7">
+        <v>224604</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M32" s="7">
+        <v>268</v>
+      </c>
+      <c r="N32" s="7">
+        <v>429019</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>162</v>
+      </c>
+      <c r="D33" s="7">
+        <v>272955</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="7">
+        <v>210</v>
+      </c>
+      <c r="I33" s="7">
+        <v>249635</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="7">
+        <v>372</v>
+      </c>
+      <c r="N33" s="7">
+        <v>522590</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2917</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2799173</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2938</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2904958</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5855</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5704131</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3206</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3276543</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3289</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3379197</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6495</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6655740</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>195</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4048,8 +4525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1437901B-C3F1-42C9-BC83-E899DFDF1846}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C528080-B16A-4F23-A04E-BF908AC62674}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4065,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4649,13 @@
         <v>31796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4187,13 +4664,13 @@
         <v>30112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4202,13 +4679,13 @@
         <v>61908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4700,13 @@
         <v>28924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4238,13 +4715,13 @@
         <v>22953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4253,13 +4730,13 @@
         <v>51877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4751,13 @@
         <v>393426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>382</v>
@@ -4289,10 +4766,10 @@
         <v>377165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>145</v>
@@ -4304,13 +4781,13 @@
         <v>770591</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4855,13 @@
         <v>61090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4393,13 +4870,13 @@
         <v>72602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4408,13 +4885,13 @@
         <v>133692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4906,13 @@
         <v>74167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4444,13 +4921,13 @@
         <v>72217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -4459,13 +4936,13 @@
         <v>146384</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4957,13 @@
         <v>551830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>469</v>
@@ -4495,13 +4972,13 @@
         <v>465436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
@@ -4510,13 +4987,13 @@
         <v>1017266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +5061,13 @@
         <v>57461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -4599,13 +5076,13 @@
         <v>69489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -4617,10 +5094,10 @@
         <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5112,13 @@
         <v>86617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4650,13 +5127,13 @@
         <v>85943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -4665,13 +5142,13 @@
         <v>172560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +5163,13 @@
         <v>537785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4701,13 +5178,13 @@
         <v>555418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1123</v>
@@ -4716,13 +5193,13 @@
         <v>1093202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +5267,13 @@
         <v>38270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4805,13 +5282,13 @@
         <v>30585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4820,13 +5297,13 @@
         <v>68854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +5318,13 @@
         <v>65240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4856,13 +5333,13 @@
         <v>79643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -4871,13 +5348,13 @@
         <v>144883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +5369,13 @@
         <v>511107</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>474</v>
@@ -4907,13 +5384,13 @@
         <v>505971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>964</v>
@@ -4922,13 +5399,13 @@
         <v>1017079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5473,13 @@
         <v>12386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5011,13 +5488,13 @@
         <v>12439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5026,13 +5503,13 @@
         <v>24825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5524,13 @@
         <v>33071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5062,13 +5539,13 @@
         <v>47829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5077,13 +5554,13 @@
         <v>80900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5575,13 @@
         <v>383972</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>371</v>
@@ -5113,13 +5590,13 @@
         <v>387531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>740</v>
@@ -5128,13 +5605,13 @@
         <v>771504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +5673,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4129</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>8225</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
       <c r="I24" s="7">
-        <v>16147</v>
+        <v>7022</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>24373</v>
+        <v>11150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,49 +5724,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>71203</v>
+        <v>44797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>43746</v>
+        <v>31908</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>114950</v>
+        <v>76705</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,49 +5775,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>465</v>
+        <v>258</v>
       </c>
       <c r="D26" s="7">
-        <v>480208</v>
+        <v>260861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
-        <v>657</v>
+        <v>320</v>
       </c>
       <c r="I26" s="7">
-        <v>683081</v>
+        <v>315066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
-        <v>1122</v>
+        <v>578</v>
       </c>
       <c r="N26" s="7">
-        <v>1163290</v>
+        <v>575926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,10 +5826,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5364,10 +5841,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5379,10 +5856,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5396,55 +5873,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>209227</v>
+        <v>4097</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>231374</v>
+        <v>9126</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="M28" s="7">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>440601</v>
+        <v>13222</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,49 +5930,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>359222</v>
+        <v>26407</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>352332</v>
+        <v>11838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="N29" s="7">
-        <v>711554</v>
+        <v>38244</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,49 +5981,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2874</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7">
-        <v>2858330</v>
+        <v>219348</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="H30" s="7">
-        <v>2914</v>
+        <v>337</v>
       </c>
       <c r="I30" s="7">
-        <v>2974603</v>
+        <v>368016</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
-        <v>5788</v>
+        <v>544</v>
       </c>
       <c r="N30" s="7">
-        <v>5832933</v>
+        <v>587364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,63 +6032,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>162</v>
+      </c>
+      <c r="D32" s="7">
+        <v>209227</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="7">
+        <v>194</v>
+      </c>
+      <c r="I32" s="7">
+        <v>231374</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M32" s="7">
+        <v>356</v>
+      </c>
+      <c r="N32" s="7">
+        <v>440601</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>173</v>
+      </c>
+      <c r="D33" s="7">
+        <v>359222</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="7">
+        <v>190</v>
+      </c>
+      <c r="I33" s="7">
+        <v>352332</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M33" s="7">
+        <v>363</v>
+      </c>
+      <c r="N33" s="7">
+        <v>711554</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2874</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2858330</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2914</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2974603</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5788</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5832933</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>195</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5624,8 +6308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD50A8-CA51-47EC-91E3-40F606A8833E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B46911-2006-44E5-9F0E-E16C5D70A1E6}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5641,7 +6325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5748,13 +6432,13 @@
         <v>41664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5763,13 +6447,13 @@
         <v>24404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5778,13 +6462,13 @@
         <v>66068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +6483,13 @@
         <v>26098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5814,13 +6498,13 @@
         <v>21853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5829,13 +6513,13 @@
         <v>47950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +6534,13 @@
         <v>351701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>367</v>
@@ -5865,13 +6549,13 @@
         <v>349499</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>714</v>
@@ -5880,13 +6564,13 @@
         <v>701200</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +6638,13 @@
         <v>57122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5969,13 +6653,13 @@
         <v>52880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5984,13 +6668,13 @@
         <v>110002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6689,13 @@
         <v>46340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -6020,13 +6704,13 @@
         <v>41216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6035,13 +6719,13 @@
         <v>87556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6740,13 @@
         <v>487034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>501</v>
@@ -6071,13 +6755,13 @@
         <v>469448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -6086,13 +6770,13 @@
         <v>956483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,10 +6844,10 @@
         <v>53622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>72</v>
@@ -6175,13 +6859,13 @@
         <v>70973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -6190,10 +6874,10 @@
         <v>124594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>45</v>
@@ -6211,13 +6895,13 @@
         <v>78646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -6226,13 +6910,13 @@
         <v>84515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -6241,13 +6925,13 @@
         <v>163161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6946,13 @@
         <v>536829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -6277,13 +6961,13 @@
         <v>505898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -6292,13 +6976,13 @@
         <v>1042727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +7050,13 @@
         <v>41378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6381,13 +7065,13 @@
         <v>48553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6396,13 +7080,13 @@
         <v>89930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +7101,13 @@
         <v>74117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -6432,13 +7116,13 @@
         <v>57707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6447,13 +7131,13 @@
         <v>131824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +7152,13 @@
         <v>530553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -6483,13 +7167,13 @@
         <v>542818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="M18" s="7">
         <v>1035</v>
@@ -6498,13 +7182,13 @@
         <v>1073370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +7256,13 @@
         <v>10088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6590,10 +7274,10 @@
         <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6602,10 +7286,10 @@
         <v>33634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>97</v>
@@ -6623,13 +7307,13 @@
         <v>36415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6638,13 +7322,13 @@
         <v>39875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -6653,13 +7337,13 @@
         <v>76290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +7358,13 @@
         <v>431415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>392</v>
@@ -6689,13 +7373,13 @@
         <v>433428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>789</v>
@@ -6704,13 +7388,13 @@
         <v>864843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,49 +7456,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>4762</v>
+        <v>2638</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8236</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M24" s="7">
         <v>9</v>
       </c>
-      <c r="I24" s="7">
-        <v>11134</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="M24" s="7">
-        <v>13</v>
-      </c>
       <c r="N24" s="7">
-        <v>15895</v>
+        <v>10874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,49 +7507,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>54129</v>
+        <v>37396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="H25" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>80940</v>
+        <v>34639</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>543</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="M25" s="7">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N25" s="7">
-        <v>135069</v>
+        <v>72035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>545</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>546</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,49 +7558,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7">
-        <v>532437</v>
+        <v>294296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="H26" s="7">
-        <v>604</v>
+        <v>327</v>
       </c>
       <c r="I26" s="7">
-        <v>685858</v>
+        <v>334887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="M26" s="7">
-        <v>1192</v>
+        <v>627</v>
       </c>
       <c r="N26" s="7">
-        <v>1218295</v>
+        <v>629183</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,10 +7609,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6940,10 +7624,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6955,10 +7639,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6972,55 +7656,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>208635</v>
+        <v>2123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>231488</v>
+        <v>2897</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="M28" s="7">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>440123</v>
+        <v>5021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,49 +7713,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>315746</v>
+        <v>16733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>42</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>326105</v>
+        <v>46301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>13</v>
+        <v>566</v>
       </c>
       <c r="M29" s="7">
-        <v>381</v>
+        <v>34</v>
       </c>
       <c r="N29" s="7">
-        <v>641851</v>
+        <v>63034</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>567</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>519</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,49 +7764,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2885</v>
+        <v>288</v>
       </c>
       <c r="D30" s="7">
-        <v>2869969</v>
+        <v>238141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>569</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="H30" s="7">
-        <v>2932</v>
+        <v>277</v>
       </c>
       <c r="I30" s="7">
-        <v>2986949</v>
+        <v>350971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>523</v>
+        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>62</v>
+        <v>573</v>
       </c>
       <c r="M30" s="7">
-        <v>5817</v>
+        <v>565</v>
       </c>
       <c r="N30" s="7">
-        <v>5856918</v>
+        <v>589112</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,63 +7815,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>158</v>
+      </c>
+      <c r="D32" s="7">
+        <v>208635</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H32" s="7">
+        <v>212</v>
+      </c>
+      <c r="I32" s="7">
+        <v>231488</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="M32" s="7">
+        <v>370</v>
+      </c>
+      <c r="N32" s="7">
+        <v>440123</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>187</v>
+      </c>
+      <c r="D33" s="7">
+        <v>315746</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H33" s="7">
+        <v>194</v>
+      </c>
+      <c r="I33" s="7">
+        <v>326105</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="7">
+        <v>381</v>
+      </c>
+      <c r="N33" s="7">
+        <v>641851</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2885</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2869969</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2932</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2986949</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5817</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5856918</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3230</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6568</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>195</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7200,8 +8091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48AB1E6-AD64-49AD-9BAA-01E6DE95B477}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D9CC20-EE84-43D1-A020-28CB9119FA2F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7217,7 +8108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7321,46 +8212,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>3045</v>
+        <v>3141</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>2883</v>
+        <v>2954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>599</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>5928</v>
+        <v>6096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,46 +8263,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>12712</v>
+        <v>15366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>10279</v>
+        <v>8887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>22992</v>
+        <v>24253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>540</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,46 +8314,46 @@
         <v>149</v>
       </c>
       <c r="D6" s="7">
-        <v>361921</v>
+        <v>381480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="H6" s="7">
         <v>184</v>
       </c>
       <c r="I6" s="7">
-        <v>341795</v>
+        <v>301359</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
       </c>
       <c r="N6" s="7">
-        <v>703716</v>
+        <v>682839</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,7 +8365,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7489,7 +8380,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7504,7 +8395,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7527,46 +8418,46 @@
         <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>5119</v>
+        <v>5266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>619</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>9885</v>
+        <v>10102</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
       </c>
       <c r="N8" s="7">
-        <v>15004</v>
+        <v>15369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,46 +8469,46 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>21846</v>
+        <v>21917</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>23373</v>
+        <v>22054</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>45220</v>
+        <v>43971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>631</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,46 +8520,46 @@
         <v>257</v>
       </c>
       <c r="D10" s="7">
-        <v>401431</v>
+        <v>396364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="H10" s="7">
         <v>376</v>
       </c>
       <c r="I10" s="7">
-        <v>449130</v>
+        <v>408845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="M10" s="7">
         <v>633</v>
       </c>
       <c r="N10" s="7">
-        <v>850561</v>
+        <v>805208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,7 +8571,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7695,7 +8586,7 @@
         <v>458</v>
       </c>
       <c r="I11" s="7">
-        <v>482389</v>
+        <v>441001</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7710,7 +8601,7 @@
         <v>760</v>
       </c>
       <c r="N11" s="7">
-        <v>910785</v>
+        <v>864548</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7733,46 +8624,46 @@
         <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>11178</v>
+        <v>11481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>16411</v>
+        <v>16693</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>647</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
       </c>
       <c r="N12" s="7">
-        <v>27589</v>
+        <v>28173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>306</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,46 +8675,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>26349</v>
+        <v>25784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>582</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>33204</v>
+        <v>31648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>653</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>583</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>59553</v>
+        <v>57432</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +8726,46 @@
         <v>453</v>
       </c>
       <c r="D14" s="7">
-        <v>519725</v>
+        <v>499073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="H14" s="7">
         <v>699</v>
       </c>
       <c r="I14" s="7">
-        <v>533861</v>
+        <v>494127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
       </c>
       <c r="N14" s="7">
-        <v>1053585</v>
+        <v>993200</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>483</v>
+        <v>663</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +8777,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7901,7 +8792,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7916,7 +8807,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7939,46 +8830,46 @@
         <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>7970</v>
+        <v>8216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>665</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>14000</v>
+        <v>14199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>486</v>
+        <v>668</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>21970</v>
+        <v>22416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8881,46 @@
         <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>44464</v>
+        <v>44093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>586</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>36792</v>
+        <v>35110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>672</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>81256</v>
+        <v>79202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,46 +8932,46 @@
         <v>572</v>
       </c>
       <c r="D18" s="7">
-        <v>615283</v>
+        <v>581836</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="H18" s="7">
         <v>990</v>
       </c>
       <c r="I18" s="7">
-        <v>674288</v>
+        <v>620735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
       </c>
       <c r="N18" s="7">
-        <v>1289571</v>
+        <v>1202571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,7 +8983,7 @@
         <v>663</v>
       </c>
       <c r="D19" s="7">
-        <v>667716</v>
+        <v>634145</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8107,7 +8998,7 @@
         <v>1134</v>
       </c>
       <c r="I19" s="7">
-        <v>725081</v>
+        <v>670044</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8122,7 +9013,7 @@
         <v>1797</v>
       </c>
       <c r="N19" s="7">
-        <v>1392797</v>
+        <v>1304189</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8145,46 +9036,46 @@
         <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>7171</v>
+        <v>7341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>684</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
       </c>
       <c r="I20" s="7">
-        <v>9230</v>
+        <v>9351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>686</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
       </c>
       <c r="N20" s="7">
-        <v>16402</v>
+        <v>16693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,46 +9087,46 @@
         <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>34393</v>
+        <v>32872</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>27257</v>
+        <v>25784</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>622</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
       </c>
       <c r="N21" s="7">
-        <v>61649</v>
+        <v>58656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>202</v>
+        <v>694</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,46 +9138,46 @@
         <v>584</v>
       </c>
       <c r="D22" s="7">
-        <v>558593</v>
+        <v>521020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
       </c>
       <c r="I22" s="7">
-        <v>557359</v>
+        <v>510019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="M22" s="7">
         <v>1481</v>
       </c>
       <c r="N22" s="7">
-        <v>1115951</v>
+        <v>1031039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,7 +9189,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8313,7 +9204,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>593846</v>
+        <v>545155</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8328,7 +9219,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1194002</v>
+        <v>1106388</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8348,49 +9239,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>4942</v>
+        <v>3265</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>705</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>6529</v>
+        <v>4176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="M24" s="7">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>11471</v>
+        <v>7442</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>666</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>532</v>
+        <v>709</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>463</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,49 +9290,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>41139</v>
+        <v>24180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>640</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I25" s="7">
-        <v>50769</v>
+        <v>26133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
       <c r="M25" s="7">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="N25" s="7">
-        <v>91908</v>
+        <v>50313</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>714</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>643</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>644</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,49 +9341,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>941</v>
+        <v>516</v>
       </c>
       <c r="D26" s="7">
-        <v>651672</v>
+        <v>340720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="H26" s="7">
-        <v>1571</v>
+        <v>746</v>
       </c>
       <c r="I26" s="7">
-        <v>854232</v>
+        <v>369697</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="M26" s="7">
-        <v>2512</v>
+        <v>1262</v>
       </c>
       <c r="N26" s="7">
-        <v>1505906</v>
+        <v>710418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>652</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,10 +9392,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8516,10 +9407,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1703</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>911530</v>
+        <v>400007</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8531,10 +9422,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1609285</v>
+        <v>768173</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8548,55 +9439,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7">
-        <v>39425</v>
+        <v>1791</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>653</v>
+        <v>724</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>654</v>
+        <v>725</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>726</v>
       </c>
       <c r="H28" s="7">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>58939</v>
+        <v>2408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>655</v>
+        <v>727</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="M28" s="7">
-        <v>617</v>
+        <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>98364</v>
+        <v>4199</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>658</v>
+        <v>600</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,49 +9496,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>180904</v>
+        <v>15191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>660</v>
+        <v>731</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>662</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="I29" s="7">
-        <v>181674</v>
+        <v>20599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>618</v>
+        <v>714</v>
       </c>
       <c r="M29" s="7">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="N29" s="7">
-        <v>362578</v>
+        <v>35790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>665</v>
+        <v>734</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>735</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,49 +9547,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2956</v>
+        <v>425</v>
       </c>
       <c r="D30" s="7">
-        <v>3108625</v>
+        <v>265777</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>737</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="H30" s="7">
-        <v>4717</v>
+        <v>825</v>
       </c>
       <c r="I30" s="7">
-        <v>3410665</v>
+        <v>401908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="M30" s="7">
-        <v>7673</v>
+        <v>1250</v>
       </c>
       <c r="N30" s="7">
-        <v>6519290</v>
+        <v>667685</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>672</v>
+        <v>743</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,63 +9598,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424915</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707674</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>247</v>
+      </c>
+      <c r="D32" s="7">
+        <v>40502</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="H32" s="7">
+        <v>370</v>
+      </c>
+      <c r="I32" s="7">
+        <v>59884</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="M32" s="7">
+        <v>617</v>
+      </c>
+      <c r="N32" s="7">
+        <v>100386</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>171</v>
+      </c>
+      <c r="D33" s="7">
+        <v>179403</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="7">
+        <v>261</v>
+      </c>
+      <c r="I33" s="7">
+        <v>170215</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="M33" s="7">
+        <v>432</v>
+      </c>
+      <c r="N33" s="7">
+        <v>349618</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2956</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2986271</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4717</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3106690</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="M34" s="7">
+        <v>7673</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6092961</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3374</v>
       </c>
-      <c r="D31" s="7">
-        <v>3328954</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3206176</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5348</v>
       </c>
-      <c r="I31" s="7">
-        <v>3651278</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3336790</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8722</v>
       </c>
-      <c r="N31" s="7">
-        <v>6980232</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>195</v>
+      <c r="N35" s="7">
+        <v>6542966</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
